--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616441.3569374168</v>
+        <v>568469.7051866831</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12362975.08664834</v>
+        <v>12402915.60941508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7656131.450648341</v>
+        <v>6034514.474368502</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8969396.380700594</v>
+        <v>9740803.738207823</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>203.2417621226447</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.5699535948969</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415045</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415045</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.20324739827399</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>64.70892486120734</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415045</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.2309268356083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415045</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>7.578814050060331</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>232.2791855053264</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.0481110425307</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.1291242489671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>92.83156789269695</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.84234716951657</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>79.63579206135134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>311.3026097187675</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>180.962442479936</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1267134157903695</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>66.15290228529894</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>172.5611102802989</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.49088380154294</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>110.0923443600222</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.97436107624952</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781160222249891</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>349.7888056987309</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.26664236073933</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>90.41948680756435</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472234</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>85.17289288835215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047991983</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>6.380068175846537</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>178.6478431952951</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>84.34466057911442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>59.90320919298873</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>11.16818915334088</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>22.20860739040462</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>195.0465954186455</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.380068175848605</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>42.36377205115118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2296021896993</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>42.01201317445354</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>37.59617708813238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>318.4685234071055</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>188.6059442291521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0900968852907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>219.1834685212288</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.7920547052925</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>124.6486541257156</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>177.6065387483027</v>
       </c>
       <c r="H35" t="n">
-        <v>179.6989004166823</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>117.0602861317404</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>102.0660356638782</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>177.4507143278949</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>203.1897060792156</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>160.6977883353101</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>36.0600284135764</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>200.8052136229463</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>243.2391485592449</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>98.76492394485743</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896186</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.326003118893</v>
+        <v>239.0239202773512</v>
       </c>
       <c r="C2" t="n">
-        <v>76.326003118893</v>
+        <v>239.0239202773512</v>
       </c>
       <c r="D2" t="n">
-        <v>76.326003118893</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E2" t="n">
-        <v>76.326003118893</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F2" t="n">
-        <v>76.326003118893</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444232</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566018</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628461</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628461</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628461</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V2" t="n">
-        <v>560.7865044148617</v>
+        <v>1355.397665784357</v>
       </c>
       <c r="W2" t="n">
-        <v>560.7865044148617</v>
+        <v>1002.629010514243</v>
       </c>
       <c r="X2" t="n">
-        <v>318.5562537668774</v>
+        <v>629.1632522531629</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.326003118893</v>
+        <v>239.0239202773512</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.0259061330117</v>
+        <v>319.7649849435437</v>
       </c>
       <c r="C3" t="n">
-        <v>341.0259061330117</v>
+        <v>319.7649849435437</v>
       </c>
       <c r="D3" t="n">
-        <v>341.0259061330117</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="E3" t="n">
-        <v>341.0259061330117</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="F3" t="n">
-        <v>303.4468683569774</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="G3" t="n">
-        <v>166.0054707161993</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>442.288414802421</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>651.8792880552517</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>915.8188195507389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.9292585450651</v>
+        <v>1201.152689984071</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>1439.95764173553</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>1612.286602689239</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T3" t="n">
-        <v>959.231792566018</v>
+        <v>1621.098002763071</v>
       </c>
       <c r="U3" t="n">
-        <v>959.231792566018</v>
+        <v>1392.981585894043</v>
       </c>
       <c r="V3" t="n">
-        <v>959.231792566018</v>
+        <v>1157.8294776623</v>
       </c>
       <c r="W3" t="n">
-        <v>717.0015419180337</v>
+        <v>903.5921209340985</v>
       </c>
       <c r="X3" t="n">
-        <v>717.0015419180337</v>
+        <v>695.7406207285657</v>
       </c>
       <c r="Y3" t="n">
-        <v>509.2412431530798</v>
+        <v>487.9803219636117</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="C4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="D4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854207</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S4" t="n">
-        <v>621.313546537826</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T4" t="n">
-        <v>395.684349850191</v>
+        <v>1068.720505876298</v>
       </c>
       <c r="U4" t="n">
-        <v>153.4540992022066</v>
+        <v>779.5838788684002</v>
       </c>
       <c r="V4" t="n">
-        <v>153.4540992022066</v>
+        <v>771.9285111410666</v>
       </c>
       <c r="W4" t="n">
-        <v>153.4540992022066</v>
+        <v>482.511341104106</v>
       </c>
       <c r="X4" t="n">
-        <v>153.4540992022066</v>
+        <v>254.5217902060887</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.4540992022066</v>
+        <v>33.72921106255855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>1283.357110060378</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E5" t="n">
-        <v>788.4778634388467</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F5" t="n">
-        <v>522.1002068716687</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G5" t="n">
-        <v>255.7225503044907</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>1669.9569501245</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932.5028692494924</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C6" t="n">
-        <v>758.0498399683654</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1154303071141</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304914</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>1021.314552263895</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1054.855520006025</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1054.855520006025</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>398.5991786999831</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>398.5991786999831</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>248.4825392876474</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745504</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>356.2217926073724</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>101.5373044014855</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>21.0971104001205</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X7" t="n">
-        <v>21.0971104001205</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.5684432757741</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="C8" t="n">
-        <v>137.5684432757741</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>137.5684432757741</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>137.5684432757741</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>137.5684432757741</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>137.5684432757741</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>137.5684432757741</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515905</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>840.4214638411526</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>586.7364457822814</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>320.3587892151035</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>320.3587892151035</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>137.5684432757741</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.5684432757741</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.09711040012049</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>21.09711040012049</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>21.09711040012049</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>21.09711040012049</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>268.3979551252636</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267547</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>739.5286634293598</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>887.8833378166544</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>691.074259448092</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>691.074259448092</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9462660988088</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>436.7089093706072</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8574091650744</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.09711040012049</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.7933752329598</v>
+        <v>831.7113734044286</v>
       </c>
       <c r="C10" t="n">
-        <v>533.7933752329598</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D10" t="n">
-        <v>533.7933752329598</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>533.7933752329598</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>466.9722618134659</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>298.4029011684693</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>144.4815281019473</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227045</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075542</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>1462.141968276216</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006025</v>
+        <v>1462.141968276216</v>
       </c>
       <c r="U10" t="n">
-        <v>1054.855520006025</v>
+        <v>1462.141968276216</v>
       </c>
       <c r="V10" t="n">
-        <v>800.1710318001377</v>
+        <v>1462.141968276216</v>
       </c>
       <c r="W10" t="n">
-        <v>533.7933752329598</v>
+        <v>1462.141968276216</v>
       </c>
       <c r="X10" t="n">
-        <v>533.7933752329598</v>
+        <v>1234.152417378198</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.7933752329598</v>
+        <v>1013.359838234668</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2361.386702945269</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C11" t="n">
-        <v>1992.424186004858</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.158487398107</v>
+        <v>563.5047572728743</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.370234799863</v>
+        <v>177.71650467463</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3843300102556</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926626</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2437.640120926626</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2437.640120926626</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2437.640120926626</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.640120926626</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2437.640120926626</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182524</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057898</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310615</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625333</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>956.2844025217535</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.492103330613</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1884.562538506775</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800311</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800311</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800311</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800311</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800311</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312202</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>824.219460709659</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>825.1371474485143</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426274</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056668</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764946</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800311</v>
+        <v>873.2974438277575</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1975.313418796631</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C14" t="n">
-        <v>1621.991392838317</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.725694231566</v>
+        <v>1289.739170804068</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333219</v>
+        <v>903.9509182058241</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>492.9650134162166</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800312</v>
+        <v>77.89256326121301</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800312</v>
+        <v>77.89256326121301</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723851</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.313418796631</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.313418796631</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.313418796631</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X14" t="n">
-        <v>1975.313418796631</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y14" t="n">
-        <v>1975.313418796631</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966384</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155114</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488047</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310615</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>932.4978103101</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1295.75982926932</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1683.044957866265</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.840679460313</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.02341329261</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400156</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400156</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>304.7348788872295</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>157.8449313893191</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312202</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074498</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074498</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074498</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074498</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074498</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>452.6479724696226</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324644</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,37 +5609,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1007.446783179745</v>
+        <v>241.8928126690262</v>
       </c>
       <c r="C19" t="n">
-        <v>838.5106002518381</v>
+        <v>72.95662974111929</v>
       </c>
       <c r="D19" t="n">
-        <v>688.3939608395024</v>
+        <v>72.95662974111929</v>
       </c>
       <c r="E19" t="n">
-        <v>540.4808672571093</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V19" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W19" t="n">
-        <v>1637.877378051532</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X19" t="n">
-        <v>1409.887827153515</v>
+        <v>644.333856642796</v>
       </c>
       <c r="Y19" t="n">
-        <v>1189.095248009985</v>
+        <v>423.5412774992659</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1575.942324366272</v>
+        <v>1458.811090838973</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W20" t="n">
-        <v>2339.547414603163</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X20" t="n">
-        <v>1966.081656342083</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y20" t="n">
-        <v>1575.942324366272</v>
+        <v>1845.410930903095</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>463.6594280995014</v>
+        <v>691.6489789975183</v>
       </c>
       <c r="C22" t="n">
-        <v>294.7232451715945</v>
+        <v>522.7127960696114</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>372.5961566572756</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>224.6830630748825</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>77.79311557697216</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,16 +5931,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
         <v>1638.191681214136</v>
@@ -5949,13 +5949,13 @@
         <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971289</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X22" t="n">
-        <v>866.1004720732712</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y22" t="n">
-        <v>645.3078929297411</v>
+        <v>873.297443827758</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1647.321240915451</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.358723975039</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1300.791660733023</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>915.003408134779</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>504.0175033451714</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>88.94505319016787</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>88.94505319016787</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3128.589058560035</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>2797.526171216464</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>2797.526171216464</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.060412955384</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y23" t="n">
-        <v>2033.921080979572</v>
+        <v>2045.657199403895</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6056,46 +6056,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1633.759572880769</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.823389952862</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952862</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952862</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3319.161308300233</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>3097.39469286976</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2808.291825995403</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>2553.607337789516</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>2264.190167752556</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>2036.200616854539</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1815.408037711009</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1561.900772669911</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1192.938255729499</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>834.6725571227485</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>448.8843045245042</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6265,13 +6265,13 @@
         <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2325.505862906802</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X26" t="n">
-        <v>1952.040104645722</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1561.900772669911</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.215744761477</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1310.798574724517</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.809023826499</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>773.9857462093221</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>388.1974936110778</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>388.1974936110778</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3135.094766832249</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6666,7 +6666,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.112184968822</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1108.149668028411</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>749.8839694216604</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.509627919559</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.616325937273</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C34" t="n">
-        <v>748.6801430093661</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D34" t="n">
-        <v>748.6801430093661</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1837.464090846021</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V34" t="n">
-        <v>1837.464090846021</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W34" t="n">
-        <v>1548.04692080906</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X34" t="n">
-        <v>1320.057369911043</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.264790767513</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1032.06112435253</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C35" t="n">
-        <v>663.0986074121186</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D35" t="n">
-        <v>663.0986074121186</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E35" t="n">
-        <v>663.0986074121186</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F35" t="n">
-        <v>663.0986074121186</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="G35" t="n">
-        <v>248.026157257115</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7125,22 +7125,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.0249360836216</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1308.370295943747</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C38" t="n">
-        <v>939.4077790033352</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D38" t="n">
-        <v>939.4077790033352</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E38" t="n">
-        <v>939.4077790033352</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.564938772426</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1748.05140230274</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1526.284786872267</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1237.18191999791</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>982.497431792023</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="X40" t="n">
-        <v>385.564938772426</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.564938772426</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1127.748203495403</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C41" t="n">
-        <v>758.7856865549913</v>
+        <v>1270.470666346906</v>
       </c>
       <c r="D41" t="n">
-        <v>400.5199879482408</v>
+        <v>912.2049677401556</v>
       </c>
       <c r="E41" t="n">
-        <v>400.5199879482408</v>
+        <v>526.4167151419113</v>
       </c>
       <c r="F41" t="n">
-        <v>400.5199879482408</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>400.5199879482408</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>102.9363875570081</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535336</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y41" t="n">
-        <v>1514.348043559525</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.0249360836216</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C43" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D43" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836216</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7687,13 +7687,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>3079.909711953368</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.3234075408147</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C46" t="n">
-        <v>872.3234075408147</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.14457273477274</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.64005315446173</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8.985656744431594</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702443</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.262887399594348</v>
+        <v>138.9393975111071</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>211.0329012241556</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154985</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154985</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.4412794980383</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>356.3469503510399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863039</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>129.9231525369645</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8659649951099</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>128.9536104466208</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941509</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>8.035631043808678</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659249</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>244.5588292737677</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>81.91444712394156</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.18982761352288</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.40405940090028</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.5916154770526</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.8872062752397</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>53.97028205224007</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>188.768658198533</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.6738737336349</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.26814573763231</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>22.10135008143854</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.2429578619376</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.7837013816893</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>154.8576191056878</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.8034931298449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>15.48408607227668</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>30.31028741218668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.60632145146387</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181376</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>140.0538944707226</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>186.6250485757124</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>264.8963081382986</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.71226382522363</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>154.8576191056873</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>19.36832238252133</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>55.94857654025645</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>183.3889571555933</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>364.5122736905603</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>90.00833646635431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>92.45320224634798</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>139.1463142409828</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>38.66491802903009</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163.5503731422518</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>290.3129182374914</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64190794127667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>161.5631840798973</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>233.3151869051508</v>
       </c>
       <c r="H35" t="n">
-        <v>114.9088639706382</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>289.815759609971</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>284.1719029921754</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>12.31831100354702</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>22.51994930982158</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>246.1782574064013</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.516901359349546</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>149.9909396202257</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>126.4919521192241</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>49.85054907335493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>510934.8081122771</v>
+        <v>640974.9928054304</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>529956.4781383714</v>
+        <v>793473.1616268004</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>529956.4781383713</v>
+        <v>793473.1616268005</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793473.1616268007</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793473.1616268005</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876251.9859909837</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909837</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876251.9859909837</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186902.5922223889</v>
+        <v>234651.8339453229</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="D2" t="n">
-        <v>193768.2521372568</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.0489695932</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="F2" t="n">
-        <v>290673.0489695932</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223744</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>863984.3294200042</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395223</v>
+        <v>238369.8891383883</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.2714301432</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341906</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353572</v>
+        <v>110313.0712406509</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944914</v>
+        <v>56355.79215856581</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676275</v>
+        <v>47552.26579341471</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431071</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9456.852498809201</v>
+        <v>11471.3714474063</v>
       </c>
       <c r="C4" t="n">
-        <v>10070.37597634434</v>
+        <v>13767.31913011281</v>
       </c>
       <c r="D4" t="n">
-        <v>10070.37597634434</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="E4" t="n">
-        <v>13767.31913011279</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="F4" t="n">
-        <v>13767.3191301128</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="G4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042263</v>
       </c>
       <c r="H4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042257</v>
       </c>
       <c r="I4" t="n">
         <v>7330.627242042245</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535946.4069908826</v>
+        <v>-724591.1999044489</v>
       </c>
       <c r="C6" t="n">
-        <v>94187.56742269403</v>
+        <v>-59629.39446064433</v>
       </c>
       <c r="D6" t="n">
-        <v>120650.0729566463</v>
+        <v>178740.4946777439</v>
       </c>
       <c r="E6" t="n">
-        <v>-152026.7140305074</v>
+        <v>56761.10710368758</v>
       </c>
       <c r="F6" t="n">
-        <v>217595.5573996356</v>
+        <v>238834.0869208777</v>
       </c>
       <c r="G6" t="n">
-        <v>68946.39518474834</v>
+        <v>238834.0869208778</v>
       </c>
       <c r="H6" t="n">
-        <v>242310.2762189389</v>
+        <v>238834.0869208779</v>
       </c>
       <c r="I6" t="n">
-        <v>242310.2762189389</v>
+        <v>238834.0869208778</v>
       </c>
       <c r="J6" t="n">
-        <v>179565.9654354032</v>
+        <v>128521.015680227</v>
       </c>
       <c r="K6" t="n">
-        <v>236157.654347994</v>
+        <v>182478.2947623121</v>
       </c>
       <c r="L6" t="n">
-        <v>242310.2762189389</v>
+        <v>238834.0869208781</v>
       </c>
       <c r="M6" t="n">
-        <v>148392.5274721762</v>
+        <v>191281.8211274631</v>
       </c>
       <c r="N6" t="n">
-        <v>242310.2762189389</v>
+        <v>238834.086920878</v>
       </c>
       <c r="O6" t="n">
-        <v>196390.0650046282</v>
+        <v>238834.0869208779</v>
       </c>
       <c r="P6" t="n">
-        <v>242310.2762189389</v>
+        <v>238834.0869208778</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175394</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175394</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>640.584832100039</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141375</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480612</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000169</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985327</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415042</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>218.9696938180575</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979355</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857144</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730006</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342226</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190646</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.009120711347161</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178439</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177245</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405676</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997903</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000174</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335773</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>195.694251168232</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849628</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759588</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069563</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857144</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342226</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178439</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997903</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000174</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069563</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N3" t="n">
-        <v>239.8079481415045</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O3" t="n">
-        <v>188.7636013047248</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>74.92318226130106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459996876</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015062</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.87976539609076</v>
+        <v>255.4201198419617</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>174.3604282380697</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>263.7138800015061</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>304.6326742391975</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407339</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457279</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376316</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637951</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>20.2916633093991</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434849</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378503</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>602.2300008170296</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634695</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870597</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468034</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376316</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2916633093991</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091745</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434849</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>640.584832100039</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0158803980279</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870597</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568469.7051866831</v>
+        <v>609458.8933146198</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12402915.60941508</v>
+        <v>12362975.08664834</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6034514.474368502</v>
+        <v>7656131.450648342</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9740803.738207823</v>
+        <v>8969396.380700594</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>211.2228407230372</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="D2" t="n">
-        <v>203.2417621226447</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.8079481415046</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>16.2605667593269</v>
       </c>
       <c r="T3" t="n">
-        <v>64.70892486120734</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V4" t="n">
-        <v>7.578814050060331</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2228407230372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.07720442932801</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.0481110425307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269695</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>20.98180629759536</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>49.84234716951657</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>215.8450691791935</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>311.3026097187675</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>244.8448976285503</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>194.1271578613098</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>172.5611102802989</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.57860974230137</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>240.8940016026214</v>
       </c>
       <c r="F11" t="n">
-        <v>110.0923443600222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.97436107624952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>315.9394472253683</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>11.26664236073933</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>90.41948680756435</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.99283228938607</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>17.18363018799974</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>58.92805047991983</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>6.380068175846537</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>56.01177530134044</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>178.6478431952951</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>350.4976661686014</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>11.16818915334088</v>
+        <v>88.23797643592245</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>230.2267521569513</v>
       </c>
       <c r="I23" t="n">
-        <v>22.20860739040462</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>70.82764119510665</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>18.93482921065052</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>260.8767548402199</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2296021896993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.957908551560009</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>42.01201317445354</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>318.4685234071055</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>228.1873534853718</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>17.25588147840212</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>65.72456219185356</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>58.92805047992164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.95016842792752</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>124.6486541257156</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>177.6065387483027</v>
+        <v>317.1195548090404</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3322,10 +3322,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>114.4746605491558</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>344.4609737341445</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>102.0660356638782</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>115.9112437681531</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>177.4507143278949</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>160.6977883353101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>28.90798465780235</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>17.25588147840214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>68.59371373186912</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212301</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>200.8052136229463</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>104.0438938896186</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.0239202773512</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="C2" t="n">
-        <v>239.0239202773512</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8290791267618</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
-        <v>269.6240911917569</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L2" t="n">
-        <v>507.2468724099484</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>803.3174389675509</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>1108.792545203136</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O2" t="n">
-        <v>1383.90876451977</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>1584.213091808873</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V2" t="n">
-        <v>1355.397665784357</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="W2" t="n">
-        <v>1002.629010514243</v>
+        <v>717.0015419180339</v>
       </c>
       <c r="X2" t="n">
-        <v>629.1632522531629</v>
+        <v>717.0015419180339</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.0239202773512</v>
+        <v>474.7712912700495</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.7649849435437</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C3" t="n">
-        <v>319.7649849435437</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D3" t="n">
-        <v>170.8305752822924</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
-        <v>170.8305752822924</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>170.8305752822924</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>59.04473788968937</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>442.288414802421</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>651.8792880552517</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>915.8188195507389</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>1201.152689984071</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>1439.95764173553</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>1612.286602689239</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>1686.460553127927</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S3" t="n">
-        <v>1686.460553127927</v>
+        <v>921.6950780597941</v>
       </c>
       <c r="T3" t="n">
-        <v>1621.098002763071</v>
+        <v>724.7057822198817</v>
       </c>
       <c r="U3" t="n">
-        <v>1392.981585894043</v>
+        <v>496.5669947310475</v>
       </c>
       <c r="V3" t="n">
-        <v>1157.8294776623</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="W3" t="n">
-        <v>903.5921209340985</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="X3" t="n">
-        <v>695.7406207285657</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.9803219636117</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96388306992289</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>169.472972355726</v>
+        <v>60.34504070228402</v>
       </c>
       <c r="L4" t="n">
-        <v>395.84507567387</v>
+        <v>245.1780356031023</v>
       </c>
       <c r="M4" t="n">
-        <v>644.9118420064103</v>
+        <v>450.4476363223401</v>
       </c>
       <c r="N4" t="n">
-        <v>893.4909737490111</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>1107.077740097166</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P4" t="n">
-        <v>1266.31743473321</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.13166510086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>1293.13166510086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S4" t="n">
-        <v>1293.13166510086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T4" t="n">
-        <v>1068.720505876298</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U4" t="n">
-        <v>779.5838788684002</v>
+        <v>717.0015419180339</v>
       </c>
       <c r="V4" t="n">
-        <v>771.9285111410666</v>
+        <v>474.7712912700495</v>
       </c>
       <c r="W4" t="n">
-        <v>482.511341104106</v>
+        <v>232.541040622065</v>
       </c>
       <c r="X4" t="n">
-        <v>254.5217902060887</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1283.357110060378</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C5" t="n">
-        <v>914.3945931199664</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D5" t="n">
-        <v>914.3945931199664</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E5" t="n">
-        <v>528.6063405217222</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6204357321147</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>888.5149683358412</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.53079966241</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>2022.53079966241</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X5" t="n">
-        <v>2022.53079966241</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.9569501245</v>
+        <v>287.4747669672984</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966393</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155124</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542611</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756906</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182527</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>216.7438834161923</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.5991786999831</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>398.5991786999831</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>248.4825392876474</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="X7" t="n">
-        <v>580.2476435302228</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
-        <v>580.2476435302228</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.384522157329</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133141</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.384522157329</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>180.334565405576</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>180.334565405576</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>180.334565405576</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.7113734044286</v>
+        <v>472.0250703768886</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7751904765217</v>
+        <v>472.0250703768886</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765217</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1462.141968276216</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T10" t="n">
-        <v>1462.141968276216</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U10" t="n">
-        <v>1462.141968276216</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V10" t="n">
-        <v>1462.141968276216</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W10" t="n">
-        <v>1462.141968276216</v>
+        <v>700.0146212749059</v>
       </c>
       <c r="X10" t="n">
-        <v>1234.152417378198</v>
+        <v>472.0250703768886</v>
       </c>
       <c r="Y10" t="n">
-        <v>1013.359838234668</v>
+        <v>472.0250703768886</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796247</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="C11" t="n">
-        <v>921.7704558796247</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="D11" t="n">
-        <v>563.5047572728743</v>
+        <v>1121.264715979404</v>
       </c>
       <c r="E11" t="n">
-        <v>177.71650467463</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218339</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943746</v>
+        <v>1479.530414586155</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214135</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008248</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971288</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.090022971288</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.2974438277575</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1648.004869410819</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="C14" t="n">
-        <v>1648.004869410819</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.739170804068</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="E14" t="n">
-        <v>903.9509182058241</v>
+        <v>1085.42259013314</v>
       </c>
       <c r="F14" t="n">
-        <v>492.9650134162166</v>
+        <v>674.4366853435322</v>
       </c>
       <c r="G14" t="n">
-        <v>77.89256326121301</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H14" t="n">
-        <v>77.89256326121301</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450752</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.744041450752</v>
+        <v>1857.810682795506</v>
       </c>
       <c r="Y14" t="n">
-        <v>2034.604709474941</v>
+        <v>1857.810682795506</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.6479724696226</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C16" t="n">
-        <v>452.6479724696226</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D16" t="n">
-        <v>452.6479724696226</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E16" t="n">
-        <v>304.7348788872295</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F16" t="n">
-        <v>157.8449313893191</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1580.897804630673</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915318</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484844</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610487</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046005</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676399</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696226</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.6479724696226</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>909.9276735868953</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>498.9417687972877</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>83.86931864228416</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>83.86931864228416</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,37 +5609,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.8928126690262</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C19" t="n">
-        <v>72.95662974111929</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D19" t="n">
-        <v>72.95662974111929</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1870.716997279058</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658018</v>
+        <v>1870.716997279058</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783661</v>
+        <v>1581.614130404702</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577774</v>
+        <v>1326.929642198815</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408134</v>
+        <v>1037.512472161854</v>
       </c>
       <c r="X19" t="n">
-        <v>644.333856642796</v>
+        <v>809.5229212638368</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.5412774992659</v>
+        <v>809.5229212638368</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1458.811090838973</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>420.5501630671343</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>420.5501630671343</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410101</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>2609.016021139987</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>2235.550262878907</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y20" t="n">
-        <v>1845.410930903095</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.6489789975183</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C22" t="n">
-        <v>522.7127960696114</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D22" t="n">
-        <v>372.5961566572756</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="E22" t="n">
-        <v>224.6830630748825</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="F22" t="n">
-        <v>77.79311557697216</v>
+        <v>155.6413855593778</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971288</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1094.090022971288</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>873.297443827758</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1659.057359339774</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C23" t="n">
-        <v>1659.057359339774</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D23" t="n">
-        <v>1300.791660733023</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="E23" t="n">
-        <v>915.003408134779</v>
+        <v>1167.119645043337</v>
       </c>
       <c r="F23" t="n">
-        <v>504.0175033451714</v>
+        <v>756.1337402537297</v>
       </c>
       <c r="G23" t="n">
-        <v>88.94505319016787</v>
+        <v>341.0612900987261</v>
       </c>
       <c r="H23" t="n">
-        <v>88.94505319016787</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2788.565186649821</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.796531379707</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X23" t="n">
-        <v>2435.796531379707</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y23" t="n">
-        <v>2045.657199403895</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
         <v>66.5121164321834</v>
@@ -6192,7 +6192,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
         <v>892.5704713767946</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2678.274518176916</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2304.808759915837</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.5412774992673</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C28" t="n">
-        <v>423.5412774992673</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D28" t="n">
-        <v>423.5412774992673</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
@@ -6417,19 +6417,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408147</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X28" t="n">
-        <v>644.3338566427974</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.5412774992673</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1501.213961756484</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C29" t="n">
-        <v>1132.251444816073</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="D29" t="n">
-        <v>773.9857462093221</v>
+        <v>1508.851000222889</v>
       </c>
       <c r="E29" t="n">
-        <v>388.1974936110778</v>
+        <v>1123.062747624645</v>
       </c>
       <c r="F29" t="n">
-        <v>388.1974936110778</v>
+        <v>712.0768428350373</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>297.0043926800337</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X29" t="n">
-        <v>2277.953133796418</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y29" t="n">
-        <v>1887.813801820606</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6691,37 +6691,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4020639300938</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4020639300938</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4020639300938</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>127.0678421169587</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.934317044728</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.249828838841</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>843.8326588018809</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>615.8431079038636</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.0505287603335</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1698.509627919559</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C35" t="n">
-        <v>1329.547110979147</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D35" t="n">
-        <v>971.2814123723965</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="E35" t="n">
-        <v>585.4931597741522</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="F35" t="n">
-        <v>585.4931597741522</v>
+        <v>726.4153982193418</v>
       </c>
       <c r="G35" t="n">
         <v>406.0926155839475</v>
@@ -6934,55 +6934,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.509627919559</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1208.812782134349</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C38" t="n">
-        <v>839.8502651939375</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>481.5845665871869</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y38" t="n">
-        <v>1595.412622198471</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1748.05140230274</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1526.284786872267</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U40" t="n">
-        <v>1237.18191999791</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V40" t="n">
-        <v>982.497431792023</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W40" t="n">
-        <v>693.0802617550623</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X40" t="n">
-        <v>693.0802617550623</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1639.433183287318</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C41" t="n">
-        <v>1270.470666346906</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D41" t="n">
-        <v>912.2049677401556</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E41" t="n">
-        <v>526.4167151419113</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>510.7845510900176</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>95.71210093501406</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>95.71210093501406</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7447,16 +7447,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1639.433183287318</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C43" t="n">
-        <v>214.4252100145765</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7614,7 +7614,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="45">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574645</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D46" t="n">
         <v>234.2149530574645</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1408.747206172099</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.062717966212</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>864.6455479292516</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>636.6559970312343</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8634178877041</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159743</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.985656744431594</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.2513171076363</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111071</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775127</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>168.7434581780636</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>171.5110009404434</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.464943629503</v>
       </c>
       <c r="D2" t="n">
-        <v>151.4412794980383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885167</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>109.4330205759084</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906497</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833735</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>131.7115544866647</v>
       </c>
       <c r="T3" t="n">
-        <v>128.9536104466208</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>46.4527065165924</v>
       </c>
       <c r="V4" t="n">
-        <v>244.5588292737677</v>
+        <v>12.32969518232341</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.48681466599999</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.653896249141</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.18982761352288</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>184.700889479709</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>96.5916154770526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>9.864586209843623</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>53.97028205224007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>82.90736084158459</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>57.56782529960978</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>22.10135008143854</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>198.9443885942896</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>141.0363684696403</v>
       </c>
       <c r="F11" t="n">
-        <v>296.7837013816893</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8576191056878</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>100.4154405304715</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>95.60825554758566</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.31028741218668</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.60632145146387</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>46.56474013018754</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>24.39329958492621</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>290.3129182374932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>140.0538944707226</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>133.7572500301015</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>186.6250485757124</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>60.42405948485208</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>154.8576191056873</v>
+        <v>77.78783182310578</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>64.38101223036912</v>
       </c>
       <c r="I23" t="n">
-        <v>19.36832238252133</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>75.60632145146252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.4862188122807</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>121.8570868232607</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.00833646635431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>165.2889125470678</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.4219494721156</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>92.45320224634798</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>66.42041090194866</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>148.7699267806261</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>317.009279471627</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>290.3129182374914</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>106.0756398311007</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>161.5631840798973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>233.3151869051508</v>
+        <v>93.80217084441307</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>105.0742887270134</v>
+        <v>134.0724053833429</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>20.81191803686306</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>284.1719029921754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>63.92073641378416</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.31831100354702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>246.1782574064013</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>12.6689451151236</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>149.9909396202257</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>97.43209452715911</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>163.5503731422505</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>141.0143920027649</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>640974.9928054304</v>
+        <v>510934.808112277</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793473.1616268004</v>
+        <v>529956.4781383713</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793473.1616268005</v>
+        <v>529956.4781383714</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876251.9859909834</v>
+        <v>793473.1616268005</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876251.9859909834</v>
+        <v>793473.1616268007</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909833</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909837</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909833</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876251.9859909837</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909837</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909837</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234651.8339453229</v>
+        <v>186902.5922223889</v>
       </c>
       <c r="C2" t="n">
+        <v>193768.2521372568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>193768.2521372568</v>
+      </c>
+      <c r="E2" t="n">
+        <v>290673.0489695931</v>
+      </c>
+      <c r="F2" t="n">
         <v>290673.0489695932</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695932</v>
-      </c>
-      <c r="E2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="F2" t="n">
-        <v>323947.2440223743</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="L2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="M2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223746</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223744</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863984.3294200042</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>238369.8891383883</v>
+        <v>26462.50553395218</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>369622.2714301429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>173363.8810341906</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110313.0712406509</v>
+        <v>62744.31078353585</v>
       </c>
       <c r="K3" t="n">
-        <v>56355.79215856581</v>
+        <v>6152.621870944907</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341471</v>
+        <v>93917.74874676277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45920.2112143106</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11471.3714474063</v>
+        <v>9456.852498809209</v>
       </c>
       <c r="C4" t="n">
-        <v>13767.31913011281</v>
+        <v>10070.37597634434</v>
       </c>
       <c r="D4" t="n">
+        <v>10070.37597634434</v>
+      </c>
+      <c r="E4" t="n">
         <v>13767.31913011279</v>
       </c>
-      <c r="E4" t="n">
-        <v>7330.627242042261</v>
-      </c>
       <c r="F4" t="n">
-        <v>7330.627242042261</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="G4" t="n">
-        <v>7330.627242042263</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="H4" t="n">
-        <v>7330.627242042257</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="I4" t="n">
         <v>7330.627242042245</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75611.38525919239</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26502,10 +26502,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724591.1999044489</v>
+        <v>-537015.3135617411</v>
       </c>
       <c r="C6" t="n">
-        <v>-59629.39446064433</v>
+        <v>93154.7959040189</v>
       </c>
       <c r="D6" t="n">
-        <v>178740.4946777439</v>
+        <v>119617.3014379712</v>
       </c>
       <c r="E6" t="n">
-        <v>56761.10710368758</v>
+        <v>-152549.4603026965</v>
       </c>
       <c r="F6" t="n">
-        <v>238834.0869208777</v>
+        <v>217072.8111274465</v>
       </c>
       <c r="G6" t="n">
-        <v>238834.0869208778</v>
+        <v>68598.77625494225</v>
       </c>
       <c r="H6" t="n">
-        <v>238834.0869208779</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="I6" t="n">
-        <v>238834.0869208778</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="J6" t="n">
-        <v>128521.015680227</v>
+        <v>179218.3465055969</v>
       </c>
       <c r="K6" t="n">
-        <v>182478.2947623121</v>
+        <v>235810.0354181882</v>
       </c>
       <c r="L6" t="n">
-        <v>238834.0869208781</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="M6" t="n">
-        <v>191281.8211274631</v>
+        <v>148044.9085423702</v>
       </c>
       <c r="N6" t="n">
-        <v>238834.086920878</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="O6" t="n">
-        <v>238834.0869208779</v>
+        <v>196042.4460748222</v>
       </c>
       <c r="P6" t="n">
-        <v>238834.0869208778</v>
+        <v>241962.6572891328</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
+        <v>614.0550137694784</v>
+      </c>
+      <c r="E3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="E3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,16 +26816,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0839356199291</v>
+        <v>20.57891343141375</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757585</v>
+        <v>320.009878348061</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9696938180571</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415047</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180575</v>
+        <v>23.90593186000166</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022532</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180571</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090892</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625586</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066896</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611372</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014939</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682853</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658685</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485897</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775957</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330906</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325347</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282128</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494789</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674105</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743149</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307773</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859908</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261558</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605112</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911974</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240734</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257156</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433297</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.919299602891</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969223</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993428</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651428</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351907</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777204</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855594</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711386</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600314</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932506</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840045</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351508</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519963</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567078</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965189</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000331</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161566</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315067</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410126</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692776</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>277.895171026903</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223262</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586411</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932407</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643754</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>211.707952780637</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691791</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407401</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812711</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289995</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.92318226130106</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883167</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452557</v>
+        <v>41.57616651612491</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203475</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550912</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632331</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324797</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000443</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944473</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419617</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391975</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>559.9405577709376</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
